--- a/TEST/TEST_통합관리문서1208.xlsx
+++ b/TEST/TEST_통합관리문서1208.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFA8D8-2FDB-4EB7-8B04-D1378CC8067E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9F1FA-955F-47DC-B874-BBD8E6E17EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Case_API" sheetId="3" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="308">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,30 +818,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error(동행자 수=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(나이=-40)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(총 계산=구백만원)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(동행자 없음&lt;-&gt;친구연인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[당일,3,있음,10,단체/모임,1000000,역사유적지방문,여,스물,미혼]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error(나이=스물)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[숙박,9,있음,5,친구/연인-기타,구백만원,음식관광-쇼핑,남,33,미혼]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,15 +842,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Error(총 계산=-2000000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[숙박,2,있음,two,친척,60000,온천/스파,여,26,미혼]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(동행자 수=two)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1520,13 +1492,6 @@
     <t>TC - 34</t>
   </si>
   <si>
-    <t>AF1 - 유효하지 않은 값을 입력했을 경우</t>
-  </si>
-  <si>
-    <t>AF1 - 유효하지 않은 값을 입력했을 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자연속의 나' 퍼스널리티 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,6 +1545,19 @@
   </si>
   <si>
     <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(동행자 정보)</t>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(나이)</t>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(총 예산)</t>
+  </si>
+  <si>
+    <t>여행지역과퍼스널리티선택하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2571,7 +2549,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -2580,10 +2558,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2598,7 +2576,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -2607,10 +2585,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2625,7 +2603,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -2634,10 +2612,10 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -3744,8 +3722,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3792,7 +3770,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>156</v>
@@ -3801,7 +3779,7 @@
         <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
         <v>162</v>
@@ -3818,7 +3796,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>156</v>
@@ -3827,7 +3805,7 @@
         <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>139</v>
@@ -3844,7 +3822,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
@@ -3853,7 +3831,7 @@
         <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
         <v>164</v>
@@ -3864,7 +3842,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>156</v>
@@ -3872,28 +3850,25 @@
       <c r="C5" t="s">
         <v>165</v>
       </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
         <v>156</v>
@@ -3901,28 +3876,25 @@
       <c r="C6" t="s">
         <v>165</v>
       </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
         <v>156</v>
@@ -3930,28 +3902,25 @@
       <c r="C7" t="s">
         <v>165</v>
       </c>
-      <c r="D7" t="s">
-        <v>297</v>
-      </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" t="s">
-        <v>166</v>
+        <v>304</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
         <v>156</v>
@@ -3959,20 +3928,17 @@
       <c r="C8" t="s">
         <v>165</v>
       </c>
-      <c r="D8" t="s">
-        <v>297</v>
-      </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
         <v>161</v>
@@ -3980,7 +3946,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>156</v>
@@ -3988,20 +3954,17 @@
       <c r="C9" t="s">
         <v>165</v>
       </c>
-      <c r="D9" t="s">
-        <v>297</v>
-      </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="I9" t="s">
         <v>161</v>
@@ -4009,7 +3972,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>156</v>
@@ -4017,20 +3980,17 @@
       <c r="C10" t="s">
         <v>165</v>
       </c>
-      <c r="D10" t="s">
-        <v>297</v>
-      </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
         <v>161</v>
@@ -4038,7 +3998,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>156</v>
@@ -4046,20 +4006,17 @@
       <c r="C11" t="s">
         <v>165</v>
       </c>
-      <c r="D11" t="s">
-        <v>297</v>
-      </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
         <v>161</v>
@@ -4067,7 +4024,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
@@ -4075,20 +4032,17 @@
       <c r="C12" t="s">
         <v>165</v>
       </c>
-      <c r="D12" t="s">
-        <v>297</v>
-      </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="I12" t="s">
         <v>161</v>
@@ -4096,7 +4050,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -4104,20 +4058,17 @@
       <c r="C13" t="s">
         <v>165</v>
       </c>
-      <c r="D13" t="s">
-        <v>297</v>
-      </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="I13" t="s">
         <v>161</v>
@@ -4125,31 +4076,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
       </c>
-      <c r="D14" t="s">
-        <v>297</v>
-      </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="7:7">
@@ -4188,7 +4136,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4235,22 +4183,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>161</v>
@@ -4258,25 +4206,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
         <v>161</v>
@@ -4284,25 +4232,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
         <v>161</v>
@@ -4310,25 +4258,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
         <v>142</v>
@@ -4336,159 +4284,159 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I13" t="s">
         <v>161</v>
@@ -4496,25 +4444,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
         <v>193</v>
       </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" t="s">
-        <v>200</v>
-      </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I14" t="s">
         <v>161</v>
@@ -4522,25 +4470,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I15" t="s">
         <v>161</v>
@@ -4548,25 +4496,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I16" t="s">
         <v>161</v>
@@ -4592,8 +4540,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4640,125 +4588,125 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>293</v>
-      </c>
-      <c r="F4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" t="s">
         <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5122,7 +5070,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -5134,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5143,7 +5091,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
@@ -5155,7 +5103,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5164,7 +5112,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -5176,7 +5124,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>

--- a/TEST/TEST_통합관리문서1208.xlsx
+++ b/TEST/TEST_통합관리문서1208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9F1FA-955F-47DC-B874-BBD8E6E17EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CF527-8A5F-493B-9C2A-1F1B39C8E047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="309">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1558,6 +1558,10 @@
   </si>
   <si>
     <t>여행지역과퍼스널리티선택하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통과여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,7 +1778,7 @@
     <tableColumn id="10" xr3:uid="{A4D82EE7-2D6F-41B2-9B88-F4600CDBF089}" name="Input Data Set"/>
     <tableColumn id="11" xr3:uid="{0A6680C4-4B1D-43FB-89A5-377C0179DA42}" name="Expected Result"/>
     <tableColumn id="14" xr3:uid="{D74B07DD-9AFE-4331-97C4-17E6C93ED2DF}" name="Real Result"/>
-    <tableColumn id="4" xr3:uid="{B8BD4C3A-4253-4A3E-955C-6E45C3F769D1}" name="PASS/FAIL"/>
+    <tableColumn id="4" xr3:uid="{B8BD4C3A-4253-4A3E-955C-6E45C3F769D1}" name="통과여부"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3722,8 +3726,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3765,7 +3769,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4097,7 +4101,7 @@
         <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="7:7">
@@ -4136,7 +4140,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/TEST/TEST_통합관리문서1208.xlsx
+++ b/TEST/TEST_통합관리문서1208.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CF527-8A5F-493B-9C2A-1F1B39C8E047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9F1FA-955F-47DC-B874-BBD8E6E17EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="308">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1558,10 +1558,6 @@
   </si>
   <si>
     <t>여행지역과퍼스널리티선택하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통과여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1778,7 +1774,7 @@
     <tableColumn id="10" xr3:uid="{A4D82EE7-2D6F-41B2-9B88-F4600CDBF089}" name="Input Data Set"/>
     <tableColumn id="11" xr3:uid="{0A6680C4-4B1D-43FB-89A5-377C0179DA42}" name="Expected Result"/>
     <tableColumn id="14" xr3:uid="{D74B07DD-9AFE-4331-97C4-17E6C93ED2DF}" name="Real Result"/>
-    <tableColumn id="4" xr3:uid="{B8BD4C3A-4253-4A3E-955C-6E45C3F769D1}" name="통과여부"/>
+    <tableColumn id="4" xr3:uid="{B8BD4C3A-4253-4A3E-955C-6E45C3F769D1}" name="PASS/FAIL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3726,8 +3722,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3769,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>308</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4101,7 +4097,7 @@
         <v>233</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="7:7">
@@ -4140,7 +4136,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/TEST/TEST_통합관리문서1208.xlsx
+++ b/TEST/TEST_통합관리문서1208.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyeoj\Desktop\융종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9F1FA-955F-47DC-B874-BBD8E6E17EAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB706E2E-057E-4008-9875-EB8D0B317D51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="540" windowWidth="14380" windowHeight="9620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Case_API" sheetId="3" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="305">
   <si>
     <t>Basic Flow #</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,46 +1288,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[숙박,2,있음,two,친척,-60000,온천/스파,여,26,미혼]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(총 예산,동행자 정보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>SC 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 3</t>
+  </si>
+  <si>
+    <t>SC 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sc 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -3</t>
+  </si>
+  <si>
+    <t>TC -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC -4</t>
+  </si>
+  <si>
+    <t>TC -5</t>
+  </si>
+  <si>
+    <t>TC -6</t>
+  </si>
+  <si>
+    <t>TC -7</t>
+  </si>
+  <si>
+    <t>TC -8</t>
+  </si>
+  <si>
+    <t>TC -9</t>
+  </si>
+  <si>
+    <t>TC -10</t>
+  </si>
+  <si>
+    <t>TC -11</t>
+  </si>
+  <si>
+    <t>TC -12</t>
+  </si>
+  <si>
+    <t>TC - 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC - 15</t>
+  </si>
+  <si>
+    <t>TC - 16</t>
+  </si>
+  <si>
+    <t>TC - 17</t>
+  </si>
+  <si>
+    <t>TC - 18</t>
+  </si>
+  <si>
+    <t>TC - 19</t>
+  </si>
+  <si>
+    <t>TC - 23</t>
+  </si>
+  <si>
+    <t>TC - 24</t>
+  </si>
+  <si>
+    <t>TC - 25</t>
+  </si>
+  <si>
+    <t>TC - 26</t>
+  </si>
+  <si>
+    <t>TC - 27</t>
+  </si>
+  <si>
+    <t>TC - 28</t>
+  </si>
+  <si>
+    <t>TC - 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC - 30</t>
+  </si>
+  <si>
+    <t>TC - 31</t>
+  </si>
+  <si>
+    <t>TC - 32</t>
+  </si>
+  <si>
+    <t>TC - 33</t>
+  </si>
+  <si>
+    <t>TC - 34</t>
+  </si>
+  <si>
+    <t>최하위 가중치 카테고리 게시물들 좋아요 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 카테고리 게시물의 비중 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요가 없는 게시물의 순서가 조회수 순으로 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물에 즐겨찾기 등록 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(동행자 정보)</t>
+  </si>
+  <si>
+    <t>올바른 값을 입력해주세요(나이)</t>
   </si>
   <si>
     <t>올바른 값을 입력해주세요(총 예산)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 3</t>
-  </si>
-  <si>
-    <t>SC 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 7</t>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼스널리티 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물의 비중 변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 게시물 좋아요 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시물 상위 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지 좋아요, 즐겨찾기 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,142 +1526,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SC 9</t>
-  </si>
-  <si>
-    <t>SC 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sc 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SC 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -3</t>
-  </si>
-  <si>
-    <t>TC -2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC -4</t>
-  </si>
-  <si>
-    <t>TC -5</t>
-  </si>
-  <si>
-    <t>TC -6</t>
-  </si>
-  <si>
-    <t>TC -7</t>
-  </si>
-  <si>
-    <t>TC -8</t>
-  </si>
-  <si>
-    <t>TC -9</t>
-  </si>
-  <si>
-    <t>TC -10</t>
-  </si>
-  <si>
-    <t>TC -11</t>
-  </si>
-  <si>
-    <t>TC -12</t>
-  </si>
-  <si>
-    <t>TC -13</t>
-  </si>
-  <si>
-    <t>TC - 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC - 15</t>
-  </si>
-  <si>
-    <t>TC - 16</t>
-  </si>
-  <si>
-    <t>TC - 17</t>
-  </si>
-  <si>
-    <t>TC - 18</t>
-  </si>
-  <si>
-    <t>TC - 19</t>
-  </si>
-  <si>
-    <t>TC - 20</t>
-  </si>
-  <si>
-    <t>TC - 21</t>
-  </si>
-  <si>
-    <t>TC - 22</t>
-  </si>
-  <si>
-    <t>TC - 23</t>
-  </si>
-  <si>
-    <t>TC - 24</t>
-  </si>
-  <si>
-    <t>TC - 25</t>
-  </si>
-  <si>
-    <t>TC - 26</t>
-  </si>
-  <si>
-    <t>TC - 27</t>
-  </si>
-  <si>
-    <t>TC - 28</t>
+    <t>메인 화면에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지에서 좋아요, 즐겨찾기 버튼 클릭 후 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 해당 게시물의 좋아요, 즐겨찾기 버튼 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TC - 29</t>
@@ -1478,86 +1551,6 @@
   </si>
   <si>
     <t>TC - 30</t>
-  </si>
-  <si>
-    <t>TC - 31</t>
-  </si>
-  <si>
-    <t>TC - 32</t>
-  </si>
-  <si>
-    <t>TC - 33</t>
-  </si>
-  <si>
-    <t>TC - 34</t>
-  </si>
-  <si>
-    <t>자연속의 나' 퍼스널리티 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NATURE가 가장 많이 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활동적인' 퍼스널리티 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPERIENCE, FESTIVAL, REPORTS가 가장 많이 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화생활' 퍼스널리티 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CULTURE가 가장 많이 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가족여행' 퍼스널리티 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HISTORY, EXPERIENCE, CULTURE, FESTIVAL가 가장 많이 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최하위 가중치 카테고리 게시물들 좋아요 클릭 후 새로고침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 카테고리 게시물의 비중 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요가 없는 게시물의 순서가 조회수 순으로 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물에 즐겨찾기 등록 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시물의 즐겨찾기 버튼 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(동행자 정보)</t>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(나이)</t>
-  </si>
-  <si>
-    <t>올바른 값을 입력해주세요(총 예산)</t>
-  </si>
-  <si>
-    <t>여행지역과퍼스널리티선택하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,8 +1756,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A9A322D-6323-4880-891B-23B1E90E396E}" name="표1_3" displayName="표1_3" ref="A1:I41" totalsRowShown="0">
-  <autoFilter ref="A1:I41" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A9A322D-6323-4880-891B-23B1E90E396E}" name="표1_3" displayName="표1_3" ref="A1:I40" totalsRowShown="0">
+  <autoFilter ref="A1:I40" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B614B1C8-1F11-4ED8-AAC0-81AC2CF881B7}" name="Scenario"/>
     <tableColumn id="2" xr3:uid="{C3AFE142-3EB3-4311-A088-9B1AB1D5996D}" name="UseCase"/>
@@ -1781,8 +1774,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D52506D-BA42-4042-88F4-A531DE2A5E7C}" name="표1_4" displayName="표1_4" ref="A1:I27" totalsRowShown="0">
-  <autoFilter ref="A1:I27" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3D52506D-BA42-4042-88F4-A531DE2A5E7C}" name="표1_4" displayName="표1_4" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26" xr:uid="{101834DB-C2B5-4DE4-B048-7B2D0779285C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1545856C-C48C-4DCB-BB8F-EE9F17D90175}" name="Scenario"/>
     <tableColumn id="2" xr3:uid="{A782EFBD-2E71-4F77-8545-E1B7E9937C5B}" name="UseCase"/>
@@ -3720,10 +3713,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3770,7 +3763,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
         <v>156</v>
@@ -3779,7 +3772,7 @@
         <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
         <v>162</v>
@@ -3796,7 +3789,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>156</v>
@@ -3805,7 +3798,7 @@
         <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F3" t="s">
         <v>139</v>
@@ -3822,7 +3815,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>156</v>
@@ -3831,7 +3824,7 @@
         <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
         <v>164</v>
@@ -3842,7 +3835,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>156</v>
@@ -3851,7 +3844,7 @@
         <v>165</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
         <v>173</v>
@@ -3868,7 +3861,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>156</v>
@@ -3877,7 +3870,7 @@
         <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
         <v>172</v>
@@ -3894,7 +3887,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>156</v>
@@ -3903,16 +3896,16 @@
         <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
         <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
         <v>161</v>
@@ -3920,7 +3913,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>156</v>
@@ -3929,16 +3922,16 @@
         <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F8" t="s">
         <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I8" t="s">
         <v>161</v>
@@ -3946,7 +3939,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B9" t="s">
         <v>156</v>
@@ -3955,16 +3948,16 @@
         <v>165</v>
       </c>
       <c r="E9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
         <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I9" t="s">
         <v>161</v>
@@ -3972,7 +3965,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
         <v>156</v>
@@ -3981,16 +3974,16 @@
         <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" t="s">
         <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I10" t="s">
         <v>161</v>
@@ -3998,7 +3991,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>156</v>
@@ -4007,16 +4000,16 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
         <v>161</v>
@@ -4024,7 +4017,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
@@ -4033,16 +4026,16 @@
         <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I12" t="s">
         <v>161</v>
@@ -4050,7 +4043,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B13" t="s">
         <v>156</v>
@@ -4059,53 +4052,27 @@
         <v>165</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
         <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="H13" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="I13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" t="s">
-        <v>233</v>
-      </c>
-      <c r="I14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7">
-      <c r="G26" s="11"/>
+    <row r="25" spans="7:7">
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I17:I1048576 I1:I14">
+  <conditionalFormatting sqref="I16:I1048576 I1:I13">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
     </cfRule>
@@ -4115,7 +4082,7 @@
       <formula>NOT(ISERROR(SEARCH("FAIL",A5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8 A10 A12 A14 A6">
+  <conditionalFormatting sqref="A8 A10 A12 A6">
     <cfRule type="containsText" priority="1" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",A6)))</formula>
     </cfRule>
@@ -4133,10 +4100,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4183,7 +4150,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>210</v>
@@ -4192,7 +4159,7 @@
         <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>218</v>
@@ -4206,7 +4173,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
         <v>210</v>
@@ -4215,7 +4182,7 @@
         <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>220</v>
@@ -4232,7 +4199,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
         <v>210</v>
@@ -4241,7 +4208,7 @@
         <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>224</v>
@@ -4258,7 +4225,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>210</v>
@@ -4267,7 +4234,7 @@
         <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>227</v>
@@ -4279,66 +4246,84 @@
         <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
+        <v>210</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>268</v>
+      </c>
+      <c r="F6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
+        <v>210</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>290</v>
+        <v>269</v>
+      </c>
+      <c r="F7" t="s">
+        <v>299</v>
       </c>
       <c r="G7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>292</v>
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="H8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>186</v>
@@ -4347,96 +4332,120 @@
         <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>293</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
         <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>296</v>
+        <v>272</v>
+      </c>
+      <c r="F10" t="s">
+        <v>282</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>283</v>
+      </c>
+      <c r="H10" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>285</v>
+      </c>
+      <c r="H11" t="s">
+        <v>285</v>
+      </c>
+      <c r="I11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+      <c r="I12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
-        <v>302</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="I13" t="s">
         <v>161</v>
@@ -4444,25 +4453,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" t="s">
-        <v>191</v>
+        <v>210</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" t="s">
-        <v>192</v>
+        <v>303</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
         <v>161</v>
@@ -4470,58 +4479,32 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>211</v>
+      <c r="C15" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" t="s">
-        <v>216</v>
-      </c>
-      <c r="I16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="11"/>
+    <row r="18" spans="7:7">
+      <c r="G18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4540,8 +4523,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4588,7 +4571,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>194</v>
@@ -4597,7 +4580,7 @@
         <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
         <v>192</v>
@@ -4605,10 +4588,16 @@
       <c r="G2" t="s">
         <v>196</v>
       </c>
+      <c r="H2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
@@ -4620,7 +4609,7 @@
         <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
         <v>192</v>
@@ -4628,10 +4617,13 @@
       <c r="G3" s="11" t="s">
         <v>198</v>
       </c>
+      <c r="I3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
         <v>194</v>
@@ -4640,7 +4632,7 @@
         <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
         <v>200</v>
@@ -4648,10 +4640,16 @@
       <c r="G4" t="s">
         <v>201</v>
       </c>
+      <c r="H4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
         <v>194</v>
@@ -4660,7 +4658,7 @@
         <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
         <v>203</v>
@@ -4668,10 +4666,16 @@
       <c r="G5" t="s">
         <v>204</v>
       </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B6" t="s">
         <v>194</v>
@@ -4680,7 +4684,7 @@
         <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
         <v>205</v>
@@ -4688,10 +4692,16 @@
       <c r="G6" t="s">
         <v>206</v>
       </c>
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
         <v>194</v>
@@ -4700,13 +4710,19 @@
         <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
         <v>209</v>
       </c>
       <c r="G7" t="s">
         <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
